--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ec17e1be56f3947/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9729580-395A-438A-8543-8F29FB23E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{D9729580-395A-438A-8543-8F29FB23E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122B85F0-4AEE-4DA0-84A0-1DE1E4DD684A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DACA3C69-3898-402E-A9AA-BA1746140698}"/>
+    <workbookView xWindow="3010" yWindow="1250" windowWidth="14400" windowHeight="7270" xr2:uid="{DACA3C69-3898-402E-A9AA-BA1746140698}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,78 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>recrecord_idstudent_id</t>
-  </si>
-  <si>
-    <t>student_photo</t>
-  </si>
-  <si>
-    <t>is_absent</t>
-  </si>
-  <si>
-    <t>student_name</t>
-  </si>
-  <si>
-    <t>total_marks</t>
-  </si>
-  <si>
-    <t>total_marks_coef</t>
-  </si>
-  <si>
-    <t>teacher_remarks</t>
-  </si>
-  <si>
-    <t>student_roll_no</t>
-  </si>
-  <si>
-    <t>class_id</t>
-  </si>
-  <si>
-    <t>section_id</t>
-  </si>
-  <si>
-    <t>class_name</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Matricule</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>presence</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>andre</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>petie section</t>
-  </si>
-  <si>
-    <t>Petite section</t>
-  </si>
-  <si>
-    <t>op</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>exauce</t>
-  </si>
-  <si>
-    <t>bien</t>
-  </si>
-  <si>
-    <t>nll</t>
+    <t xml:space="preserve">some </t>
+  </si>
+  <si>
+    <t>bertrand</t>
+  </si>
+  <si>
+    <t>TLD2</t>
+  </si>
+  <si>
+    <t>230337-I</t>
   </si>
 </sst>
 </file>
@@ -469,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE0673E-DFBD-449F-8BFA-2426A5E17387}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,14 +450,13 @@
     <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,99 +481,35 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>21</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
